--- a/PPT/rt-thread.xlsx
+++ b/PPT/rt-thread.xlsx
@@ -2933,6 +2933,653 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>578827</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="组合 17"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1377462" y="8733692"/>
+          <a:ext cx="8154865" cy="1304193"/>
+          <a:chOff x="1377462" y="8733692"/>
+          <a:chExt cx="8154865" cy="1304193"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="矩形 68"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2066192" y="9268558"/>
+            <a:ext cx="1362808" cy="351601"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>优先级</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="矩形 69"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3429000" y="9268558"/>
+            <a:ext cx="2066192" cy="351601"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>优先级</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="矩形 70"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5509846" y="9268558"/>
+            <a:ext cx="1362808" cy="351601"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>优先级</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="矩形 71"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6872654" y="9268558"/>
+            <a:ext cx="2066192" cy="351601"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>优先级</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1384788" y="8733692"/>
+            <a:ext cx="0" cy="1208943"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="75" name="直接箭头连接符 74"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1377462" y="9949962"/>
+            <a:ext cx="8154865" cy="2"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="直接连接符 15"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2058865" y="9884019"/>
+            <a:ext cx="0" cy="153866"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="17" name="组合 16"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2754923" y="9876693"/>
+            <a:ext cx="6198577" cy="153866"/>
+            <a:chOff x="2754923" y="9876693"/>
+            <a:chExt cx="6198577" cy="153866"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="79" name="直接连接符 78"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2754923" y="9876693"/>
+              <a:ext cx="0" cy="153866"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="80" name="直接连接符 79"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3443654" y="9876693"/>
+              <a:ext cx="0" cy="153866"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="81" name="直接连接符 80"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4132385" y="9876693"/>
+              <a:ext cx="0" cy="153866"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="82" name="直接连接符 81"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4821115" y="9876693"/>
+              <a:ext cx="0" cy="153866"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="83" name="直接连接符 82"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5509846" y="9876693"/>
+              <a:ext cx="0" cy="153866"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="84" name="直接连接符 83"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6198577" y="9876693"/>
+              <a:ext cx="0" cy="153866"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="85" name="直接连接符 84"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6887308" y="9876693"/>
+              <a:ext cx="0" cy="153866"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="86" name="直接连接符 85"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7576038" y="9876693"/>
+              <a:ext cx="0" cy="153866"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="87" name="直接连接符 86"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8264769" y="9876693"/>
+              <a:ext cx="0" cy="153866"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="88" name="直接连接符 87"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8953500" y="9876693"/>
+              <a:ext cx="0" cy="153866"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3223,10 +3870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B23:P51"/>
+  <dimension ref="B23:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3724,9 +4371,180 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B23:P51"/>
+    <mergeCell ref="B52:P61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
